--- a/outputs-r202/test-g__UBA4951.xlsx
+++ b/outputs-r202/test-g__UBA4951.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Row</t>
   </si>
@@ -100,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -110,14 +110,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -152,236 +156,236 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>2.2204460492501345e-14</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>2.2204460492501345e-14</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2.2204460492501345e-14</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.2204460492501345e-14</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.2204460492501345e-14</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.2204460492501345e-14</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.2204460492501345e-14</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>2.2204460492501345e-14</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9999999999989706</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>6.962414115621057e-13</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2.2204460492501345e-14</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.2204460492501345e-14</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2.2204460492501345e-14</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2.2204460492501345e-14</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2.2204460492501345e-14</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>2.2204460492501345e-14</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>2.2204460492501345e-14</v>
       </c>
       <c r="S2">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.4953344105344645e-13</v>
+        <v>2.4953138785680751e-13</v>
       </c>
       <c r="C3">
-        <v>2.4953344105344645e-13</v>
+        <v>2.4953138785680751e-13</v>
       </c>
       <c r="D3">
-        <v>0.22667540411806786</v>
+        <v>0.22667427259477452</v>
       </c>
       <c r="E3">
-        <v>2.495334410534464e-13</v>
+        <v>2.4953138785680761e-13</v>
       </c>
       <c r="F3">
-        <v>0.27332394301307106</v>
+        <v>0.27332272642407779</v>
       </c>
       <c r="G3">
-        <v>2.495334410534464e-13</v>
+        <v>2.4953138785680761e-13</v>
       </c>
       <c r="H3">
-        <v>0.27332394301307111</v>
+        <v>0.27332272642407779</v>
       </c>
       <c r="I3">
-        <v>2.495334410534464e-13</v>
+        <v>2.4953138785680761e-13</v>
       </c>
       <c r="J3">
-        <v>2.495334410534464e-13</v>
+        <v>2.4953138785680761e-13</v>
       </c>
       <c r="K3">
-        <v>2.4953344105344645e-13</v>
+        <v>2.4953138785680761e-13</v>
       </c>
       <c r="L3">
-        <v>2.4953344105344645e-13</v>
+        <v>2.4953138785680761e-13</v>
       </c>
       <c r="M3">
-        <v>2.4953344105344645e-13</v>
+        <v>2.4953138785680741e-13</v>
       </c>
       <c r="N3">
-        <v>1.3057347272497465e-06</v>
+        <v>6.0019593010838071e-06</v>
       </c>
       <c r="O3">
-        <v>2.4953344105344746e-13</v>
+        <v>2.4953138785680741e-13</v>
       </c>
       <c r="P3">
-        <v>2.4953344105344746e-13</v>
+        <v>2.4953138785680761e-13</v>
       </c>
       <c r="Q3">
-        <v>0.22667540411806833</v>
+        <v>0.22667427259477441</v>
       </c>
       <c r="R3">
-        <v>2.4953344105344746e-13</v>
+        <v>2.4953138785680751e-13</v>
       </c>
       <c r="S3">
         <v>5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2204460741273368e-14</v>
+        <v>2.220446044885303e-14</v>
       </c>
       <c r="C4">
-        <v>2.2204460741273368e-14</v>
+        <v>2.220446044885303e-14</v>
       </c>
       <c r="D4">
-        <v>2.2204460741273368e-14</v>
+        <v>2.220446044885303e-14</v>
       </c>
       <c r="E4">
-        <v>2.2204460741273368e-14</v>
+        <v>2.220446044885303e-14</v>
       </c>
       <c r="F4">
-        <v>2.2204460741273368e-14</v>
+        <v>2.220446044885303e-14</v>
       </c>
       <c r="G4">
-        <v>2.2204460741273368e-14</v>
+        <v>2.220446044885303e-14</v>
       </c>
       <c r="H4">
-        <v>2.2204460741273368e-14</v>
+        <v>2.220446044885303e-14</v>
       </c>
       <c r="I4">
-        <v>2.2204460741273368e-14</v>
+        <v>2.220446044885303e-14</v>
       </c>
       <c r="J4">
-        <v>2.2204460741273368e-14</v>
+        <v>2.220446044885303e-14</v>
       </c>
       <c r="K4">
-        <v>0.99999999999515143</v>
+        <v>0.99999996041818218</v>
       </c>
       <c r="L4">
-        <v>2.2204460741273364e-14</v>
+        <v>2.220446044885303e-14</v>
       </c>
       <c r="M4">
-        <v>2.2204460741273364e-14</v>
+        <v>2.220446044885303e-14</v>
       </c>
       <c r="N4">
-        <v>4.515534368285312e-12</v>
+        <v>3.9581484720482252e-08</v>
       </c>
       <c r="O4">
-        <v>2.2204460741273364e-14</v>
+        <v>2.220446044885303e-14</v>
       </c>
       <c r="P4">
-        <v>2.2204460741273364e-14</v>
+        <v>2.220446044885303e-14</v>
       </c>
       <c r="Q4">
-        <v>2.2204460741273364e-14</v>
+        <v>2.220446044885303e-14</v>
       </c>
       <c r="R4">
-        <v>2.2204460741273364e-14</v>
+        <v>2.220446044885303e-14</v>
       </c>
       <c r="S4">
         <v>10</v>
